--- a/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2049</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6177</v>
+        <v>6594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004896103737123822</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001566197581068776</v>
+        <v>0.001554752106199906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01476135747848448</v>
+        <v>0.01575870252302237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2049</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5468</v>
+        <v>5783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002883123239734522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009169825587601707</v>
+        <v>0.000924066653363985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007694947932713894</v>
+        <v>0.008137875932541019</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8152</v>
+        <v>8635</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00831114788379589</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02790113966346078</v>
+        <v>0.02955730048751517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8277</v>
+        <v>8824</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003417039241661879</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01164730902938939</v>
+        <v>0.01241767373491924</v>
       </c>
     </row>
     <row r="6">
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4009</v>
+        <v>4195</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001690272043405538</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00958001621737626</v>
+        <v>0.0100240280488845</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3994</v>
+        <v>3567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0009953348359156347</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005620938939405212</v>
+        <v>0.005019789479955051</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>3914</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1001</v>
+        <v>1073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9220</v>
+        <v>9911</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01339585452666024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003427108050757301</v>
+        <v>0.003672988456696046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03155929416586267</v>
+        <v>0.03392232184510113</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1045,19 +1045,19 @@
         <v>1558</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4542</v>
+        <v>4367</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.003723805462663367</v>
+        <v>0.003723805462663366</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0009522734354496349</v>
+        <v>0.0009568869765141912</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01085510502105272</v>
+        <v>0.01043657329370484</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1066,19 +1066,19 @@
         <v>5472</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2396</v>
+        <v>2293</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11551</v>
+        <v>11839</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007700364616831825</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003372098152054041</v>
+        <v>0.003226121893645731</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0162547030804326</v>
+        <v>0.01666029985614004</v>
       </c>
     </row>
     <row r="10">
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2308</v>
+        <v>1853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0008459292749476256</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.005515866696309471</v>
+        <v>0.004429337293144244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1776</v>
+        <v>2128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0004981345336457265</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002499925954154234</v>
+        <v>0.002995190733875259</v>
       </c>
     </row>
     <row r="11">
@@ -1158,19 +1158,19 @@
         <v>5457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1782</v>
+        <v>2249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11232</v>
+        <v>11921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01867755005688601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006101038491277406</v>
+        <v>0.0076985372996112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03844523496602512</v>
+        <v>0.04080287747927223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1179,19 +1179,19 @@
         <v>4640</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2308</v>
+        <v>2332</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8688</v>
+        <v>8567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01108962731216796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005516721819132884</v>
+        <v>0.005573942351082443</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02076165420329765</v>
+        <v>0.02047293720197766</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1200,19 +1200,19 @@
         <v>10097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5644</v>
+        <v>5765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16889</v>
+        <v>17241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01420932030090085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007942155737348956</v>
+        <v>0.00811299404990609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02376644928071353</v>
+        <v>0.02426261178680009</v>
       </c>
     </row>
     <row r="12">
@@ -1229,19 +1229,19 @@
         <v>2712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7320</v>
+        <v>7830</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009281146841115502</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002433275126120299</v>
+        <v>0.002427085912674828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02505538853334925</v>
+        <v>0.02680164909820586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3901</v>
+        <v>4175</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002545667198446523</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.009322421166449777</v>
+        <v>0.009977426605046249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1271,19 +1271,19 @@
         <v>3777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1120</v>
+        <v>1424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9056</v>
+        <v>8484</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005314887355783319</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001576392443652713</v>
+        <v>0.002004062259634275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01274443606517437</v>
+        <v>0.01193944609462387</v>
       </c>
     </row>
     <row r="13">
@@ -1300,19 +1300,19 @@
         <v>12102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6530</v>
+        <v>6326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21977</v>
+        <v>22035</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04142212958498349</v>
+        <v>0.04142212958498348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0223506264852889</v>
+        <v>0.02165316034035212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.075221923380047</v>
+        <v>0.07542107058122999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1321,19 +1321,19 @@
         <v>9911</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6344</v>
+        <v>6228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15081</v>
+        <v>14987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02368441054693963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01516012224249917</v>
+        <v>0.01488241742636639</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0360412481575737</v>
+        <v>0.03581561901287013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1342,19 +1342,19 @@
         <v>22013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14863</v>
+        <v>15260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33081</v>
+        <v>32456</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03097708333510408</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02091561569500315</v>
+        <v>0.02147507138274753</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04655307979972832</v>
+        <v>0.04567298619073577</v>
       </c>
     </row>
     <row r="14">
@@ -1371,19 +1371,19 @@
         <v>9750</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5233</v>
+        <v>5899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17051</v>
+        <v>17860</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03337294568270986</v>
+        <v>0.03337294568270985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01791299164059262</v>
+        <v>0.02019085337788273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0583608282280321</v>
+        <v>0.06113147290560735</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -1392,19 +1392,19 @@
         <v>21229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13875</v>
+        <v>14473</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31834</v>
+        <v>31348</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05073133162223655</v>
+        <v>0.05073133162223656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03315730749085565</v>
+        <v>0.03458622382605397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07607495275228825</v>
+        <v>0.07491526901157053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -1413,19 +1413,19 @@
         <v>30979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22219</v>
+        <v>22998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42479</v>
+        <v>43863</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04359461756581619</v>
+        <v>0.04359461756581617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03126784950799166</v>
+        <v>0.03236325030613231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05977754346593512</v>
+        <v>0.06172564928798208</v>
       </c>
     </row>
     <row r="15">
@@ -1442,19 +1442,19 @@
         <v>255798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>242823</v>
+        <v>243524</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>265014</v>
+        <v>266315</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.875539225423849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8311302489975085</v>
+        <v>0.8335304863691453</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9070835696620512</v>
+        <v>0.9115381247827717</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>660</v>
@@ -1463,19 +1463,19 @@
         <v>376937</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>366220</v>
+        <v>364602</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>386698</v>
+        <v>386127</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.900792852802069</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8751816258533788</v>
+        <v>0.8713145948919264</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9241197446661195</v>
+        <v>0.9227542647265394</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>972</v>
@@ -1484,19 +1484,19 @@
         <v>632734</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>616235</v>
+        <v>617171</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>646504</v>
+        <v>648393</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8904100949746059</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8671912119689487</v>
+        <v>0.8685089640534335</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9097868499606755</v>
+        <v>0.9124452987882954</v>
       </c>
     </row>
     <row r="16">
@@ -1588,19 +1588,19 @@
         <v>5852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2308</v>
+        <v>2330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12449</v>
+        <v>12132</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005043423133635378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001989568776959729</v>
+        <v>0.002008037612786992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01072976201021999</v>
+        <v>0.01045629249759379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1609,19 +1609,19 @@
         <v>7454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3435</v>
+        <v>2961</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16776</v>
+        <v>17640</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.006951898819200465</v>
+        <v>0.006951898819200463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003203109166994551</v>
+        <v>0.002760983510783148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01564554446177934</v>
+        <v>0.01645105566976379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1630,19 +1630,19 @@
         <v>13306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7121</v>
+        <v>7654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24755</v>
+        <v>23128</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.005960044629133995</v>
+        <v>0.005960044629133996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003189653277805012</v>
+        <v>0.003428459908879524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01108822972495679</v>
+        <v>0.01035955848077986</v>
       </c>
     </row>
     <row r="18">
@@ -1659,19 +1659,19 @@
         <v>16038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8722</v>
+        <v>7859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33484</v>
+        <v>30777</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01382290739253185</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007517372629166698</v>
+        <v>0.006773539109082523</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02885861154906882</v>
+        <v>0.02652578743007264</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1680,19 +1680,19 @@
         <v>6191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2745</v>
+        <v>2821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11366</v>
+        <v>11843</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.005773349024750299</v>
+        <v>0.005773349024750298</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002559662423041606</v>
+        <v>0.002630756799408524</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01059982166264491</v>
+        <v>0.01104498930780252</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1701,19 +1701,19 @@
         <v>22229</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13013</v>
+        <v>13851</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37094</v>
+        <v>38032</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.009956786233647584</v>
+        <v>0.009956786233647586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00582893719134077</v>
+        <v>0.006204327281691372</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01661503033821957</v>
+        <v>0.01703540602224123</v>
       </c>
     </row>
     <row r="19">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6469</v>
+        <v>6672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001024351880830132</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005575386104059296</v>
+        <v>0.005750656000306434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1798,19 +1798,19 @@
         <v>2074</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6833</v>
+        <v>5561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001934379386797598</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0004241035502772952</v>
+        <v>0.0004205375191840149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006372278205413758</v>
+        <v>0.005186186107817004</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1819,19 +1819,19 @@
         <v>3263</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8281</v>
+        <v>8989</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.001461428852663697</v>
+        <v>0.001461428852663698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0004128231314577418</v>
+        <v>0.0004146004245602153</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003709409936401925</v>
+        <v>0.004026236581582562</v>
       </c>
     </row>
     <row r="21">
@@ -1861,19 +1861,19 @@
         <v>2492</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7305</v>
+        <v>6931</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002323625699529435</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0006293914883931288</v>
+        <v>0.0006362567824215512</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.006812395077656492</v>
+        <v>0.006464238451891908</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1882,19 +1882,19 @@
         <v>2492</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7537</v>
+        <v>7589</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001116013832291003</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0003074203332739402</v>
+        <v>0.0003064472927851267</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.003376102978544075</v>
+        <v>0.00339916189578183</v>
       </c>
     </row>
     <row r="22">
@@ -1911,19 +1911,19 @@
         <v>9617</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4871</v>
+        <v>4466</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18511</v>
+        <v>17797</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008288544584621275</v>
+        <v>0.008288544584621277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004198360094813925</v>
+        <v>0.00384900089086543</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01595391807083391</v>
+        <v>0.01533831286102638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -1932,19 +1932,19 @@
         <v>10569</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5959</v>
+        <v>6348</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17066</v>
+        <v>16834</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.009856317097084684</v>
+        <v>0.00985631709708468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00555750478150776</v>
+        <v>0.005920568617978638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01591597311650356</v>
+        <v>0.01569976194401183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -1953,19 +1953,19 @@
         <v>20186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12804</v>
+        <v>12907</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29585</v>
+        <v>29842</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.009041529805153613</v>
+        <v>0.009041529805153615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005735294353157872</v>
+        <v>0.0057814897283211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01325162022385183</v>
+        <v>0.01336667413804735</v>
       </c>
     </row>
     <row r="23">
@@ -1982,19 +1982,19 @@
         <v>7619</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3212</v>
+        <v>3124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15306</v>
+        <v>14946</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006566724553016341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002767980566544901</v>
+        <v>0.002692808898054176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01319171528210188</v>
+        <v>0.01288128355858871</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2003,19 +2003,19 @@
         <v>7242</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3609</v>
+        <v>3642</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14381</v>
+        <v>13032</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.006753848420575452</v>
+        <v>0.00675384842057545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003365641979171495</v>
+        <v>0.003396761569893125</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01341143253103972</v>
+        <v>0.01215389182398503</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -2024,19 +2024,19 @@
         <v>14861</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8784</v>
+        <v>9248</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24920</v>
+        <v>25068</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.006656598246782961</v>
+        <v>0.006656598246782962</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00393434656886584</v>
+        <v>0.004142387323443735</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01116228442330152</v>
+        <v>0.01122861870510673</v>
       </c>
     </row>
     <row r="24">
@@ -2053,19 +2053,19 @@
         <v>34041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20964</v>
+        <v>20962</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55411</v>
+        <v>55446</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02933902263535934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01806846915378075</v>
+        <v>0.0180665049337286</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0477566353520009</v>
+        <v>0.04778655979032877</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -2074,19 +2074,19 @@
         <v>32111</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22826</v>
+        <v>21620</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46642</v>
+        <v>45894</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02994714179407474</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02128712907190019</v>
+        <v>0.02016294175684976</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04349842503953019</v>
+        <v>0.04280073503740706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>59</v>
@@ -2095,19 +2095,19 @@
         <v>66153</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>49501</v>
+        <v>49172</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89848</v>
+        <v>91867</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02963109609320799</v>
+        <v>0.029631096093208</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02217261350833051</v>
+        <v>0.02202487113545146</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04024448355471968</v>
+        <v>0.04114902192447389</v>
       </c>
     </row>
     <row r="25">
@@ -2124,19 +2124,19 @@
         <v>23175</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13405</v>
+        <v>14104</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39597</v>
+        <v>39014</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01997379062901372</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01155287313501545</v>
+        <v>0.01215569606655452</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03412706837581404</v>
+        <v>0.03362429901117173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2145,19 +2145,19 @@
         <v>15350</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9919</v>
+        <v>10171</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23791</v>
+        <v>24280</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01431504040399502</v>
+        <v>0.01431504040399501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0092504285892379</v>
+        <v>0.009485587077186226</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02218772392541902</v>
+        <v>0.02264369672345484</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2166,19 +2166,19 @@
         <v>38525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26685</v>
+        <v>27568</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54304</v>
+        <v>55827</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01725595034781885</v>
+        <v>0.01725595034781886</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01195282769668536</v>
+        <v>0.01234826580777446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02432394635692122</v>
+        <v>0.02500584859183012</v>
       </c>
     </row>
     <row r="26">
@@ -2195,19 +2195,19 @@
         <v>74070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56130</v>
+        <v>53804</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99900</v>
+        <v>99524</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06383853952436375</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04837631340448362</v>
+        <v>0.04637137994782627</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08610046061706988</v>
+        <v>0.08577579878975015</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -2216,19 +2216,19 @@
         <v>61423</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48815</v>
+        <v>49186</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76957</v>
+        <v>77672</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05728284211037392</v>
+        <v>0.0572828421103739</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04552534900788552</v>
+        <v>0.04587078026980033</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07177007394083944</v>
+        <v>0.07243663608334157</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>133</v>
@@ -2237,19 +2237,19 @@
         <v>135493</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110088</v>
+        <v>112179</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>162767</v>
+        <v>164668</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.06068990461478744</v>
+        <v>0.06068990461478746</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04931051005059546</v>
+        <v>0.05024689414029337</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07290658359877407</v>
+        <v>0.07375799685809475</v>
       </c>
     </row>
     <row r="27">
@@ -2266,19 +2266,19 @@
         <v>117606</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>94567</v>
+        <v>97614</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>138448</v>
+        <v>139428</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.101360509321249</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08150373299824627</v>
+        <v>0.08412966393179364</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1193231065165958</v>
+        <v>0.1201675725114237</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>194</v>
@@ -2287,19 +2287,19 @@
         <v>125566</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>108739</v>
+        <v>107281</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146250</v>
+        <v>145330</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1171033778659941</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1014101277838847</v>
+        <v>0.1000503109739925</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1363932087736778</v>
+        <v>0.1355348858341827</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>324</v>
@@ -2308,19 +2308,19 @@
         <v>243173</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>217384</v>
+        <v>214249</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>274426</v>
+        <v>269794</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1089216492498668</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0973702584627177</v>
+        <v>0.09596611510830663</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1229207154948186</v>
+        <v>0.1208457062863997</v>
       </c>
     </row>
     <row r="28">
@@ -2337,19 +2337,19 @@
         <v>871069</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>834565</v>
+        <v>834528</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>904291</v>
+        <v>905279</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7507421863453794</v>
+        <v>0.7507421863453793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7192811822561294</v>
+        <v>0.7192493686740814</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7793747206232557</v>
+        <v>0.7802270201464214</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1102</v>
@@ -2358,19 +2358,19 @@
         <v>801798</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>774679</v>
+        <v>774869</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>825008</v>
+        <v>827868</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7477581793776242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7224667607717067</v>
+        <v>0.7226443253228828</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7694042737971355</v>
+        <v>0.7720714944909514</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1908</v>
@@ -2379,19 +2379,19 @@
         <v>1672868</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1626281</v>
+        <v>1626194</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1715096</v>
+        <v>1716583</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7493089980946461</v>
+        <v>0.749308998094646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7284421438607174</v>
+        <v>0.7284031730511451</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7682237917632472</v>
+        <v>0.7688899231300631</v>
       </c>
     </row>
     <row r="29">
@@ -2483,19 +2483,19 @@
         <v>7454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3085</v>
+        <v>3103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16034</v>
+        <v>16235</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02150355802788179</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008900221688008584</v>
+        <v>0.008950716403072505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04625306799679148</v>
+        <v>0.0468335739748738</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2504,19 +2504,19 @@
         <v>2791</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9230</v>
+        <v>9981</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.007675566631644042</v>
+        <v>0.007675566631644043</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001320164769220519</v>
+        <v>0.001311822869059987</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02538410424450659</v>
+        <v>0.02744913774006723</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2525,19 +2525,19 @@
         <v>10245</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4801</v>
+        <v>4432</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19312</v>
+        <v>19356</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01442431364000473</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006759494193248842</v>
+        <v>0.006239566234293173</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0271899221751525</v>
+        <v>0.02725188192018795</v>
       </c>
     </row>
     <row r="31">
@@ -2554,19 +2554,19 @@
         <v>7398</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3094</v>
+        <v>3228</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14153</v>
+        <v>14091</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02134084930814461</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008924078174082561</v>
+        <v>0.009313039338937271</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04082640370900876</v>
+        <v>0.04064887940609724</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2575,19 +2575,19 @@
         <v>11256</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5997</v>
+        <v>6011</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19166</v>
+        <v>19334</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0309538134951606</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01649168219579512</v>
+        <v>0.01653036187548509</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05270645679429694</v>
+        <v>0.05317055047331024</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2596,19 +2596,19 @@
         <v>18654</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11879</v>
+        <v>11268</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29063</v>
+        <v>29048</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02626220923828685</v>
+        <v>0.02626220923828686</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.016724675616048</v>
+        <v>0.01586427088456767</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04091810138276911</v>
+        <v>0.04089723824273444</v>
       </c>
     </row>
     <row r="32">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4102</v>
+        <v>3608</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.00196534965796985</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01128155284897239</v>
+        <v>0.009922958515016527</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3754</v>
+        <v>3569</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.001006161353281186</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005285369806492588</v>
+        <v>0.005025449075858886</v>
       </c>
     </row>
     <row r="33">
@@ -2688,19 +2688,19 @@
         <v>3764</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10075</v>
+        <v>11379</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0108579060845906</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002837647349016877</v>
+        <v>0.002874423166939439</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02906459394030731</v>
+        <v>0.03282430329379148</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8037</v>
+        <v>7129</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003292519364067418</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02210136831050546</v>
+        <v>0.01960585637033138</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -2730,19 +2730,19 @@
         <v>4961</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>11609</v>
+        <v>12263</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006984804059233901</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.001655334282828627</v>
+        <v>0.001679280362231857</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01634492795560838</v>
+        <v>0.01726502016384764</v>
       </c>
     </row>
     <row r="34">
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5653</v>
+        <v>4962</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00427686813469907</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01554565896616401</v>
+        <v>0.01364571997958753</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5784</v>
+        <v>5449</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002189543938282769</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008142720714995159</v>
+        <v>0.007670932971064619</v>
       </c>
     </row>
     <row r="35">
@@ -2822,19 +2822,19 @@
         <v>6297</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2250</v>
+        <v>2261</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14649</v>
+        <v>13848</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.01816377392536893</v>
+        <v>0.01816377392536894</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00648989452487413</v>
+        <v>0.006522815137346955</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04225838469048381</v>
+        <v>0.0399490652615407</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -2843,19 +2843,19 @@
         <v>8404</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4268</v>
+        <v>4467</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15548</v>
+        <v>14815</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02311232058495509</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01173823836101941</v>
+        <v>0.01228461702555504</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04275786507865527</v>
+        <v>0.04074302801575971</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>17</v>
@@ -2864,19 +2864,19 @@
         <v>14701</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7708</v>
+        <v>8514</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24246</v>
+        <v>23826</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02069718388811699</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01085243317883327</v>
+        <v>0.01198614739006531</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03413610020829398</v>
+        <v>0.03354455499119199</v>
       </c>
     </row>
     <row r="36">
@@ -2893,19 +2893,19 @@
         <v>2728</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7567</v>
+        <v>8544</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.00786817887010449</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001938024899656765</v>
+        <v>0.001967759588795184</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02182933672594319</v>
+        <v>0.02464813537769511</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -2914,19 +2914,19 @@
         <v>5005</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2128</v>
+        <v>2251</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10470</v>
+        <v>10496</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01376394306040122</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005853337337349503</v>
+        <v>0.006190838055152102</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02879192038525223</v>
+        <v>0.02886438654336497</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -2935,19 +2935,19 @@
         <v>7732</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3779</v>
+        <v>3719</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13848</v>
+        <v>13790</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01088651713489112</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005320134152388639</v>
+        <v>0.005235690688345691</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01949648473241766</v>
+        <v>0.01941467066602256</v>
       </c>
     </row>
     <row r="37">
@@ -2964,19 +2964,19 @@
         <v>7158</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3706</v>
+        <v>3213</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14891</v>
+        <v>13386</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02064839292170708</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01069209605609572</v>
+        <v>0.009268443471223719</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04295728011352997</v>
+        <v>0.03861545326852854</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -2985,19 +2985,19 @@
         <v>14894</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8900</v>
+        <v>8760</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24938</v>
+        <v>24204</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04095988081708343</v>
+        <v>0.04095988081708345</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02447584829719799</v>
+        <v>0.02408931799044401</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0685797513065729</v>
+        <v>0.06656167996846425</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -3006,19 +3006,19 @@
         <v>22052</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14438</v>
+        <v>14289</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34043</v>
+        <v>32925</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03104686530807967</v>
+        <v>0.03104686530807968</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02032704160338831</v>
+        <v>0.02011788028910276</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04792842685116133</v>
+        <v>0.0463555310205999</v>
       </c>
     </row>
     <row r="38">
@@ -3035,19 +3035,19 @@
         <v>12071</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>6408</v>
+        <v>7216</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>20112</v>
+        <v>20545</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03482106807876189</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01848592908550385</v>
+        <v>0.02081624067264981</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05801676029417827</v>
+        <v>0.05926597306700394</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -3056,19 +3056,19 @@
         <v>5256</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2206</v>
+        <v>2327</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10194</v>
+        <v>9869</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01445554335865301</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006067616291161072</v>
+        <v>0.006398478884799325</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02803396465125728</v>
+        <v>0.02713907910862782</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>21</v>
@@ -3077,19 +3077,19 @@
         <v>17327</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10723</v>
+        <v>11253</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>26859</v>
+        <v>26272</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.0243949315235838</v>
+        <v>0.02439493152358381</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01509638241949005</v>
+        <v>0.01584290809733176</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03781422873874581</v>
+        <v>0.03698863486332939</v>
       </c>
     </row>
     <row r="39">
@@ -3106,19 +3106,19 @@
         <v>20320</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>11640</v>
+        <v>12349</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>33873</v>
+        <v>34585</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05861760631881398</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03357835192681532</v>
+        <v>0.03562232088203297</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09771380013253353</v>
+        <v>0.099768004249579</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>35</v>
@@ -3127,19 +3127,19 @@
         <v>20719</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14397</v>
+        <v>14788</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29031</v>
+        <v>28999</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.05697737913627781</v>
+        <v>0.05697737913627782</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03959314067056507</v>
+        <v>0.0406682849504914</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07983635930852113</v>
+        <v>0.07974904397843829</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>53</v>
@@ -3148,19 +3148,19 @@
         <v>41038</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30494</v>
+        <v>31247</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>56556</v>
+        <v>57256</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.05777789151540645</v>
+        <v>0.05777789151540647</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04293177818908048</v>
+        <v>0.04399243358358915</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.07962453142219764</v>
+        <v>0.08061003399142638</v>
       </c>
     </row>
     <row r="40">
@@ -3177,19 +3177,19 @@
         <v>77086</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>63164</v>
+        <v>63029</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>93929</v>
+        <v>92867</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2223719487411657</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1822119000525123</v>
+        <v>0.1818223255026601</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2709618978706489</v>
+        <v>0.2678981441849062</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>82</v>
@@ -3198,19 +3198,19 @@
         <v>45874</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>36364</v>
+        <v>37208</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56525</v>
+        <v>57226</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1261554239376127</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1000042086556832</v>
+        <v>0.102324593530766</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1554478901948783</v>
+        <v>0.1573747293968664</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>171</v>
@@ -3219,19 +3219,19 @@
         <v>122959</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>106130</v>
+        <v>106822</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>142554</v>
+        <v>143122</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1731138696956502</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1494203153270892</v>
+        <v>0.1503937211391466</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2007018043732298</v>
+        <v>0.2015006812950577</v>
       </c>
     </row>
     <row r="41">
@@ -3248,19 +3248,19 @@
         <v>202378</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>184053</v>
+        <v>181297</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>220147</v>
+        <v>219745</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5838067177234607</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5309453347893162</v>
+        <v>0.5229952289225924</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6350654534377267</v>
+        <v>0.6339071448993151</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>342</v>
@@ -3269,19 +3269,19 @@
         <v>245962</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>229515</v>
+        <v>229631</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>260720</v>
+        <v>260517</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.6764113918214757</v>
+        <v>0.6764113918214758</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.6311817841644135</v>
+        <v>0.631500539982822</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7169965189682991</v>
+        <v>0.7164382986742458</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>537</v>
@@ -3290,19 +3290,19 @@
         <v>448340</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>422808</v>
+        <v>424117</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>472061</v>
+        <v>472436</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.6312157087051822</v>
+        <v>0.6312157087051823</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5952692075457269</v>
+        <v>0.5971129620987792</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6646130573322415</v>
+        <v>0.6651403107553384</v>
       </c>
     </row>
     <row r="42">
@@ -3394,19 +3394,19 @@
         <v>13306</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7273</v>
+        <v>6785</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23401</v>
+        <v>22821</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.007395978934271932</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.004042338634561694</v>
+        <v>0.003771547629402602</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0130070663626489</v>
+        <v>0.01268499027034536</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -3415,19 +3415,19 @@
         <v>12294</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>6961</v>
+        <v>6904</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>23990</v>
+        <v>23410</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.006629897843757815</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.003753836807827026</v>
+        <v>0.003723184868741106</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01293735739963605</v>
+        <v>0.01262442235555113</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>26</v>
@@ -3436,19 +3436,19 @@
         <v>25600</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>16682</v>
+        <v>17029</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>37833</v>
+        <v>39667</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.007007144810089498</v>
+        <v>0.007007144810089499</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.004566237279725474</v>
+        <v>0.004661152782420169</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01035539022637908</v>
+        <v>0.01085734504049653</v>
       </c>
     </row>
     <row r="44">
@@ -3465,19 +3465,19 @@
         <v>25864</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>16274</v>
+        <v>15302</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42834</v>
+        <v>43259</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01437640831717673</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.009045509108396783</v>
+        <v>0.008505533436283165</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02380892300501848</v>
+        <v>0.02404504225896761</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>22</v>
@@ -3486,19 +3486,19 @@
         <v>17446</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11416</v>
+        <v>11294</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>27018</v>
+        <v>27758</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.009408303454144078</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006156291900097463</v>
+        <v>0.006090802285362112</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01457025560332459</v>
+        <v>0.01496909644042716</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>43</v>
@@ -3507,19 +3507,19 @@
         <v>43311</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30705</v>
+        <v>31001</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>62413</v>
+        <v>60737</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.01185478400457638</v>
+        <v>0.01185478400457637</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008404422427602018</v>
+        <v>0.008485482763190996</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01708347495162313</v>
+        <v>0.01662458795525118</v>
       </c>
     </row>
     <row r="45">
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3616</v>
+        <v>3991</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0003853951803723535</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.001949812156470019</v>
+        <v>0.002152276044927741</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>3570</v>
+        <v>3580</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0001956121868556338</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.000977220494338837</v>
+        <v>0.0009799333953862683</v>
       </c>
     </row>
     <row r="46">
@@ -3599,19 +3599,19 @@
         <v>4952</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1192</v>
+        <v>1340</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12242</v>
+        <v>12567</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0027527538135007</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0006627729367182349</v>
+        <v>0.000744719108159122</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0068044674999432</v>
+        <v>0.006985064046615252</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -3620,19 +3620,19 @@
         <v>3979</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1618</v>
+        <v>1169</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9613</v>
+        <v>9724</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002145618792892804</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0008728108181132398</v>
+        <v>0.0006301468784887044</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.005184134308131257</v>
+        <v>0.005243950244575182</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>9</v>
@@ -3641,19 +3641,19 @@
         <v>8931</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4115</v>
+        <v>4635</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>16921</v>
+        <v>18401</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.002444594772738937</v>
+        <v>0.002444594772738938</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00112647229863366</v>
+        <v>0.001268592475634832</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.004631615876052852</v>
+        <v>0.005036582695359162</v>
       </c>
     </row>
     <row r="47">
@@ -3683,19 +3683,19 @@
         <v>4047</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9749</v>
+        <v>9076</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.00218229974146346</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.000763072696767115</v>
+        <v>0.0007659575318925492</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.005257533276224751</v>
+        <v>0.004894179591983507</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -3704,19 +3704,19 @@
         <v>4047</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1383</v>
+        <v>1490</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8910</v>
+        <v>9930</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.001107653770837801</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0003785103017429479</v>
+        <v>0.0004079328575394167</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.002438905661794781</v>
+        <v>0.002717977823932704</v>
       </c>
     </row>
     <row r="48">
@@ -3733,19 +3733,19 @@
         <v>19827</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12089</v>
+        <v>12681</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>32460</v>
+        <v>31409</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01102071613565651</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.006719317936776154</v>
+        <v>0.007048594781518562</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01804221621462967</v>
+        <v>0.01745825835702849</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>31</v>
@@ -3754,19 +3754,19 @@
         <v>20531</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>13946</v>
+        <v>14100</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>30660</v>
+        <v>29641</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01107189645588609</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.007520881179577854</v>
+        <v>0.00760383857857408</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01653415825943006</v>
+        <v>0.01598434694801093</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>49</v>
@@ -3775,19 +3775,19 @@
         <v>40358</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>29514</v>
+        <v>30746</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>54511</v>
+        <v>55943</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.01104669335300107</v>
+        <v>0.01104669335300108</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.00807842430799263</v>
+        <v>0.008415722116548546</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01492040711844529</v>
+        <v>0.01531235570728539</v>
       </c>
     </row>
     <row r="49">
@@ -3804,19 +3804,19 @@
         <v>10347</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>5263</v>
+        <v>5286</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>18835</v>
+        <v>19832</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.005751100717124661</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.002925569355066366</v>
+        <v>0.002937945617478128</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01046912776623535</v>
+        <v>0.01102316926500759</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>18</v>
@@ -3825,19 +3825,19 @@
         <v>12601</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7263</v>
+        <v>7314</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>19327</v>
+        <v>19722</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.006795317785880669</v>
+        <v>0.006795317785880668</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.003916839227265365</v>
+        <v>0.003944434604238378</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0104226457009814</v>
+        <v>0.01063576017837815</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>28</v>
@@ -3846,19 +3846,19 @@
         <v>22948</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>15172</v>
+        <v>15295</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>34068</v>
+        <v>33063</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.006281106266685485</v>
+        <v>0.006281106266685486</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.004152750089214337</v>
+        <v>0.00418638231060326</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.009324968957230208</v>
+        <v>0.009049841501110436</v>
       </c>
     </row>
     <row r="50">
@@ -3875,19 +3875,19 @@
         <v>46656</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>31406</v>
+        <v>31325</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>68296</v>
+        <v>70211</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02593314451227253</v>
+        <v>0.02593314451227252</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0174565613541029</v>
+        <v>0.01741136542952802</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03796135602069654</v>
+        <v>0.03902593539552903</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>63</v>
@@ -3896,19 +3896,19 @@
         <v>51646</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>38415</v>
+        <v>39495</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>69507</v>
+        <v>72231</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02785131729086886</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02071594048031385</v>
+        <v>0.02129873420206133</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03748305549635723</v>
+        <v>0.03895241374416547</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>99</v>
@@ -3917,19 +3917,19 @@
         <v>98302</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>76113</v>
+        <v>76517</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>126561</v>
+        <v>125565</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02690673731025628</v>
+        <v>0.02690673731025629</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02083336716504223</v>
+        <v>0.02094378306922924</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0346416520423233</v>
+        <v>0.0343689453079425</v>
       </c>
     </row>
     <row r="51">
@@ -3946,19 +3946,19 @@
         <v>37958</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>26133</v>
+        <v>26268</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>55577</v>
+        <v>54622</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02109818326370766</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01452544106664096</v>
+        <v>0.01460052611455674</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03089148569816993</v>
+        <v>0.03036108178930248</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>32</v>
@@ -3967,19 +3967,19 @@
         <v>21671</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>15120</v>
+        <v>14774</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>31512</v>
+        <v>31478</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.01168672773733897</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.008154065162693631</v>
+        <v>0.007967240622556411</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01699379149760354</v>
+        <v>0.01697550386806057</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>66</v>
@@ -3988,19 +3988,19 @@
         <v>59629</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>46960</v>
+        <v>46067</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>79429</v>
+        <v>76782</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.01632128025410379</v>
+        <v>0.0163212802541038</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01285370803493433</v>
+        <v>0.01260918468391345</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02174082640285479</v>
+        <v>0.02101629545941127</v>
       </c>
     </row>
     <row r="52">
@@ -4017,19 +4017,19 @@
         <v>106492</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>84149</v>
+        <v>83294</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>135988</v>
+        <v>136780</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.05919228900847613</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04677326150833785</v>
+        <v>0.04629811824672453</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.07558724134389694</v>
+        <v>0.07602728397512169</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>138</v>
@@ -4038,19 +4038,19 @@
         <v>92052</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>77524</v>
+        <v>76786</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>109784</v>
+        <v>110522</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.0496411550287519</v>
+        <v>0.04964115502875189</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.04180683757799553</v>
+        <v>0.04140881924289164</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.05920382338523276</v>
+        <v>0.05960162999678768</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>219</v>
@@ -4059,19 +4059,19 @@
         <v>198544</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>171093</v>
+        <v>168651</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>233673</v>
+        <v>231501</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.05434449043735774</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.04683079678636156</v>
+        <v>0.04616227775053283</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.06395980939705215</v>
+        <v>0.06336515775722558</v>
       </c>
     </row>
     <row r="53">
@@ -4088,19 +4088,19 @@
         <v>204442</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>180909</v>
+        <v>181201</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>234069</v>
+        <v>232396</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.1136365331639287</v>
+        <v>0.1136365331639286</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1005556219953361</v>
+        <v>0.1007180075405339</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1301041899986052</v>
+        <v>0.1291741202623467</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>306</v>
@@ -4109,19 +4109,19 @@
         <v>192669</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>170357</v>
+        <v>171808</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>217025</v>
+        <v>219822</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.10390099122707</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.09186906775374318</v>
+        <v>0.09265138677851011</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1170355728364681</v>
+        <v>0.1185441638001656</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>538</v>
@@ -4130,19 +4130,19 @@
         <v>397111</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>362984</v>
+        <v>365384</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>433757</v>
+        <v>432957</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1086951360072395</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.09935415568455581</v>
+        <v>0.1000110661796145</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1187257591302383</v>
+        <v>0.118506828075966</v>
       </c>
     </row>
     <row r="54">
@@ -4159,19 +4159,19 @@
         <v>1329244</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1288733</v>
+        <v>1283552</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1370343</v>
+        <v>1369812</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.7388428921338845</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.7163254026829579</v>
+        <v>0.7134457208064179</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.7616873398800702</v>
+        <v>0.7613917880196095</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2104</v>
@@ -4180,19 +4180,19 @@
         <v>1424698</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1393486</v>
+        <v>1389439</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1457385</v>
+        <v>1455296</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.7683010794615731</v>
+        <v>0.768301079461573</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.7514697564765195</v>
+        <v>0.749287079680771</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.7859285695942959</v>
+        <v>0.7848019930683956</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3417</v>
@@ -4201,19 +4201,19 @@
         <v>2753942</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2694690</v>
+        <v>2699005</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2800476</v>
+        <v>2805887</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.7537947668262578</v>
+        <v>0.7537947668262579</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.7375767166009086</v>
+        <v>0.7387577421604039</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.7665318897757696</v>
+        <v>0.7680130244944546</v>
       </c>
     </row>
     <row r="55">
